--- a/biology/Botanique/Banksia_conferta/Banksia_conferta.xlsx
+++ b/biology/Botanique/Banksia_conferta/Banksia_conferta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia de Glasshouse, Banksia de serre
 Banksia conferta, le Banksia de Glasshouse, est une espèce de plante du genre Banksia, de la famille des Proteaceae. Il s'agit d'arbustes ou de petits arbres endémiques d'Australie.
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,12 +555,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 août 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 août 2023) :
 sous-espèce Banksia conferta subsp. conferta
 sous-espèce Banksia conferta subsp. penicillata A.S. George
-Selon Tropicos                                           (13 août 2023)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 août 2023) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Banksia conferta subsp. conferta
 sous-espèce Banksia conferta subsp. penicillata (A.S. George) A.S. George
 variété Banksia conferta var. conferta
